--- a/Spell_Caster_Strings.xlsx
+++ b/Spell_Caster_Strings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="497">
   <si>
     <t>Text</t>
   </si>
@@ -426,6 +426,18 @@
   </si>
   <si>
     <t>{Name} learned the {Potion} recipe!</t>
+  </si>
+  <si>
+    <t>Known Recipes:</t>
+  </si>
+  <si>
+    <t>* No Recipes known</t>
+  </si>
+  <si>
+    <t>Type the Recipe name to view it:</t>
+  </si>
+  <si>
+    <t>You don't know that recipe</t>
   </si>
   <si>
     <t>"{Spell}!"</t>
@@ -1666,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1713,8 +1725,8 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1726,19 +1738,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1747,8 +1759,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2711,91 +2729,99 @@
       <c r="C72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
@@ -7414,1016 +7440,1016 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -12853,13 +12879,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -12867,324 +12893,324 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>325</v>
+      <c r="A26" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>326</v>
+      <c r="C26" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>326</v>
+      <c r="C27" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>326</v>
+      <c r="C28" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>326</v>
+      <c r="C29" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>326</v>
+      <c r="C31" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -19041,308 +19067,308 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>367</v>
+      <c r="A19" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>336</v>
+      <c r="A22" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>373</v>
+        <v>350</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>375</v>
+        <v>378</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -19374,39 +19400,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="18"/>
@@ -19418,132 +19444,132 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" s="2">
         <v>3.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>390</v>
+        <v>393</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>394</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B4" s="2">
         <v>4.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B6" s="2">
         <v>6.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B7" s="2">
         <v>7.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
@@ -29500,244 +29526,244 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39">
@@ -33612,27 +33638,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B2" s="22" t="b">
         <v>0</v>
@@ -33644,7 +33670,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F2" s="22" t="b">
         <v>0</v>
@@ -33652,7 +33678,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B3" s="22" t="b">
         <v>0</v>
@@ -33664,7 +33690,7 @@
         <v>50.0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F3" s="22" t="b">
         <v>0</v>
@@ -33672,7 +33698,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B4" s="22" t="b">
         <v>0</v>
@@ -33684,7 +33710,7 @@
         <v>100.0</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F4" s="22" t="b">
         <v>0</v>
@@ -33692,7 +33718,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B5" s="22" t="b">
         <v>0</v>
@@ -33704,7 +33730,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F5" s="22" t="b">
         <v>0</v>
@@ -33712,7 +33738,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B6" s="22" t="b">
         <v>0</v>
@@ -33724,7 +33750,7 @@
         <v>50.0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F6" s="22" t="b">
         <v>0</v>
@@ -33732,7 +33758,7 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B7" s="22" t="b">
         <v>0</v>
@@ -33744,7 +33770,7 @@
         <v>100.0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F7" s="22" t="b">
         <v>0</v>
@@ -33752,7 +33778,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B8" s="22" t="b">
         <v>0</v>
@@ -33764,7 +33790,7 @@
         <v>20.0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F8" s="22" t="b">
         <v>0</v>
@@ -33772,7 +33798,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B9" s="22" t="b">
         <v>0</v>
@@ -33784,7 +33810,7 @@
         <v>50.0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F9" s="22" t="b">
         <v>0</v>
@@ -33792,7 +33818,7 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B10" s="22" t="b">
         <v>0</v>
@@ -33804,7 +33830,7 @@
         <v>100.0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F10" s="22" t="b">
         <v>0</v>
@@ -33812,7 +33838,7 @@
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B11" s="24" t="b">
         <v>0</v>
@@ -33828,7 +33854,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B12" s="24" t="b">
         <v>0</v>
@@ -33837,10 +33863,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F12" s="24" t="b">
         <v>0</v>
@@ -33848,7 +33874,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B13" s="24" t="b">
         <v>0</v>
@@ -33857,10 +33883,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F13" s="24" t="b">
         <v>0</v>
@@ -33868,7 +33894,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B14" s="24" t="b">
         <v>0</v>
@@ -33877,10 +33903,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F14" s="24" t="b">
         <v>0</v>
@@ -33888,7 +33914,7 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B15" s="24" t="b">
         <v>0</v>
@@ -33897,10 +33923,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F15" s="24" t="b">
         <v>0</v>
@@ -33908,7 +33934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B16" s="24" t="b">
         <v>0</v>
@@ -33917,10 +33943,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F16" s="24" t="b">
         <v>0</v>
@@ -33928,7 +33954,7 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B17" s="24" t="b">
         <v>0</v>
@@ -33937,10 +33963,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F17" s="24" t="b">
         <v>0</v>
@@ -33948,7 +33974,7 @@
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B18" s="24" t="b">
         <v>0</v>
@@ -33957,10 +33983,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F18" s="24" t="b">
         <v>0</v>
@@ -33968,7 +33994,7 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B19" s="24" t="b">
         <v>0</v>
@@ -33977,10 +34003,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F19" s="24" t="b">
         <v>0</v>
@@ -33988,7 +34014,7 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B20" s="24" t="b">
         <v>0</v>
@@ -33997,10 +34023,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F20" s="24" t="b">
         <v>0</v>
@@ -34008,7 +34034,7 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B21" s="24" t="b">
         <v>0</v>
@@ -34017,10 +34043,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F21" s="24" t="b">
         <v>0</v>
@@ -34028,7 +34054,7 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B22" s="24" t="b">
         <v>1</v>
@@ -34044,7 +34070,7 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B23" s="24" t="b">
         <v>0</v>
@@ -34060,7 +34086,7 @@
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B24" s="24" t="b">
         <v>0</v>
@@ -34076,7 +34102,7 @@
     </row>
     <row r="25">
       <c r="A25" s="25" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B25" s="24" t="b">
         <v>0</v>
@@ -34092,7 +34118,7 @@
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B26" s="24" t="b">
         <v>0</v>
@@ -34108,7 +34134,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B27" s="24" t="b">
         <v>0</v>
@@ -34124,7 +34150,7 @@
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B28" s="24" t="b">
         <v>0</v>
@@ -34140,7 +34166,7 @@
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B29" s="24" t="b">
         <v>0</v>
@@ -34156,7 +34182,7 @@
     </row>
     <row r="30">
       <c r="A30" s="25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B30" s="24" t="b">
         <v>0</v>
@@ -34172,7 +34198,7 @@
     </row>
     <row r="31">
       <c r="A31" s="25" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B31" s="24" t="b">
         <v>0</v>
@@ -34188,7 +34214,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B32" s="24" t="b">
         <v>0</v>
@@ -34204,7 +34230,7 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B33" s="24" t="b">
         <v>0</v>
@@ -34220,7 +34246,7 @@
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B34" s="24" t="b">
         <v>0</v>
@@ -34236,7 +34262,7 @@
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B35" s="24" t="b">
         <v>0</v>
@@ -34252,7 +34278,7 @@
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B36" s="24" t="b">
         <v>0</v>
@@ -34268,7 +34294,7 @@
     </row>
     <row r="37">
       <c r="A37" s="28" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B37" s="24" t="b">
         <v>0</v>
@@ -34284,7 +34310,7 @@
     </row>
     <row r="38">
       <c r="A38" s="28" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B38" s="24" t="b">
         <v>0</v>
@@ -34300,7 +34326,7 @@
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B39" s="24" t="b">
         <v>0</v>
@@ -34316,7 +34342,7 @@
     </row>
     <row r="40">
       <c r="A40" s="28" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B40" s="24" t="b">
         <v>0</v>
@@ -34332,7 +34358,7 @@
     </row>
     <row r="41">
       <c r="A41" s="28" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B41" s="24" t="b">
         <v>0</v>
@@ -34348,7 +34374,7 @@
     </row>
     <row r="42">
       <c r="A42" s="28" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B42" s="24" t="b">
         <v>0</v>
@@ -34364,7 +34390,7 @@
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B43" s="24" t="b">
         <v>0</v>
@@ -34380,7 +34406,7 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B44" s="22" t="b">
         <v>1</v>
@@ -34395,18 +34421,18 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="B45" s="22" t="b">
+      <c r="A45" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B45" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="C45" s="22" t="b">
+      <c r="C45" s="30" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="22" t="b">
+      <c r="F45" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -34435,388 +34461,388 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>466</v>
+        <v>438</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>470</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>338</v>
+        <v>485</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>473</v>
+        <v>439</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>477</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="31"/>
+        <v>485</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="33"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>476</v>
+        <v>440</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>480</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" s="31"/>
+        <v>485</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="33"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>362</v>
+        <v>441</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>366</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>335</v>
+        <v>486</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>467</v>
+        <v>442</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>471</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="31"/>
+        <v>486</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6" s="33"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>473</v>
       </c>
+      <c r="C7" s="35" t="s">
+        <v>477</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>468</v>
-      </c>
-      <c r="G7" s="31"/>
+        <v>486</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="33"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>404</v>
+        <v>395</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="G9" s="31"/>
+        <v>443</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="33"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="G10" s="31"/>
+      <c r="D10" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" s="33"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>346</v>
+        <v>458</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>473</v>
-      </c>
-      <c r="G12" s="31"/>
+        <v>460</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="33"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="G13" s="31"/>
+        <v>461</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G13" s="33"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>378</v>
+        <v>462</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="G15" s="31"/>
+        <v>463</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G15" s="33"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" s="31"/>
+        <v>464</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G16" s="33"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>491</v>
+        <v>466</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F19" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="D19" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="G19" s="33"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="C20" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>492</v>
+      <c r="B20" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="G21" s="31"/>
+      <c r="F21" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="33"/>
     </row>
     <row r="22">
-      <c r="F22" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="G22" s="31"/>
+      <c r="F22" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Spell_Caster_Strings.xlsx
+++ b/Spell_Caster_Strings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="500">
   <si>
     <t>Text</t>
   </si>
@@ -1205,151 +1205,160 @@
     <t>3, 6</t>
   </si>
   <si>
+    <t>Elixir, Elixir Recipe</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Yetti</t>
+  </si>
+  <si>
+    <t>Ice, Strength</t>
+  </si>
+  <si>
+    <t>6, 15</t>
+  </si>
+  <si>
+    <t>Mega-Potion, Ice Key, Mega-Potion Recipe</t>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+  </si>
+  <si>
+    <t>Leviathan</t>
+  </si>
+  <si>
+    <t>Water, Def</t>
+  </si>
+  <si>
+    <t>7, 12</t>
+  </si>
+  <si>
+    <t>Mega-Ether, Mega-Ether Recipe</t>
+  </si>
+  <si>
+    <t>Thunderbird</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Lightning, Magic</t>
+  </si>
+  <si>
+    <t>8, 17</t>
+  </si>
+  <si>
+    <t>Hi-Elixir, Hi-Elixir Recipe</t>
+  </si>
+  <si>
+    <t>Ancient Tree</t>
+  </si>
+  <si>
+    <t>Wind, Def</t>
+  </si>
+  <si>
+    <t>9, 18</t>
+  </si>
+  <si>
+    <t>Mega-Elixir, Mega-Elixir Recipe</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Magic Defense</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Amount of self-damage dealt by casting spells with HP</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>Amount of physical damage taken</t>
+  </si>
+  <si>
+    <t>MHits</t>
+  </si>
+  <si>
+    <t>Amount of magical damage taken</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Hi-Potion</t>
+  </si>
+  <si>
+    <t>Mega-Potion</t>
+  </si>
+  <si>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t>Hi-Ether</t>
+  </si>
+  <si>
+    <t>Mega-Ether</t>
+  </si>
+  <si>
     <t>Elixir</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Yetti</t>
-  </si>
-  <si>
-    <t>Ice, Strength</t>
-  </si>
-  <si>
-    <t>6, 15</t>
-  </si>
-  <si>
-    <t>Mega-Potion, Ice Key</t>
-  </si>
-  <si>
-    <t>1, 1</t>
-  </si>
-  <si>
-    <t>Leviathan</t>
-  </si>
-  <si>
-    <t>Water, Def</t>
-  </si>
-  <si>
-    <t>7, 12</t>
-  </si>
-  <si>
-    <t>Mega-Ether</t>
-  </si>
-  <si>
-    <t>Thunderbird</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Lightning, Magic</t>
-  </si>
-  <si>
-    <t>8, 17</t>
-  </si>
-  <si>
-    <t>Mega-Potion, Mega-Ether</t>
-  </si>
-  <si>
-    <t>Ancient Tree</t>
-  </si>
-  <si>
-    <t>Wind, Def</t>
-  </si>
-  <si>
-    <t>9, 18</t>
+    <t>Hi-Elixir</t>
   </si>
   <si>
     <t>Mega-Elixir</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>XP</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Magic Defense</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>Regen</t>
-  </si>
-  <si>
-    <t>Drain</t>
-  </si>
-  <si>
-    <t>Curse</t>
-  </si>
-  <si>
-    <t>Protect</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Sacrifice</t>
-  </si>
-  <si>
-    <t>Amount of self-damage dealt by casting spells with HP</t>
-  </si>
-  <si>
-    <t>Hits</t>
-  </si>
-  <si>
-    <t>Amount of physical damage taken</t>
-  </si>
-  <si>
-    <t>MHits</t>
-  </si>
-  <si>
-    <t>Amount of magical damage taken</t>
-  </si>
-  <si>
-    <t>Potion</t>
-  </si>
-  <si>
-    <t>Hi-Potion</t>
-  </si>
-  <si>
-    <t>Mega-Potion</t>
-  </si>
-  <si>
-    <t>Ether</t>
-  </si>
-  <si>
-    <t>Hi-Ether</t>
-  </si>
-  <si>
-    <t>Hi-Elixir</t>
   </si>
   <si>
     <t>Merlin</t>
@@ -19458,10 +19467,10 @@
       <c r="E3" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>396</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -19510,10 +19519,10 @@
       <c r="E5" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>396</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -19536,11 +19545,11 @@
       <c r="E6" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>402</v>
+      <c r="G6" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>397</v>
@@ -19562,10 +19571,10 @@
       <c r="E7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>396</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -29720,50 +29729,50 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39">
@@ -33638,22 +33647,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
@@ -33758,7 +33767,7 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="B7" s="22" t="b">
         <v>0</v>
@@ -33778,7 +33787,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B8" s="22" t="b">
         <v>0</v>
@@ -33790,7 +33799,7 @@
         <v>20.0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F8" s="22" t="b">
         <v>0</v>
@@ -33798,7 +33807,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B9" s="22" t="b">
         <v>0</v>
@@ -33810,7 +33819,7 @@
         <v>50.0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F9" s="22" t="b">
         <v>0</v>
@@ -33818,7 +33827,7 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B10" s="22" t="b">
         <v>0</v>
@@ -33830,7 +33839,7 @@
         <v>100.0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F10" s="22" t="b">
         <v>0</v>
@@ -33838,7 +33847,7 @@
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B11" s="24" t="b">
         <v>0</v>
@@ -33854,7 +33863,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B12" s="24" t="b">
         <v>0</v>
@@ -33863,7 +33872,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>342</v>
@@ -33874,7 +33883,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B13" s="24" t="b">
         <v>0</v>
@@ -33883,7 +33892,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>339</v>
@@ -33894,7 +33903,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B14" s="24" t="b">
         <v>0</v>
@@ -33903,7 +33912,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>350</v>
@@ -33914,7 +33923,7 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B15" s="24" t="b">
         <v>0</v>
@@ -33923,7 +33932,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>382</v>
@@ -33934,7 +33943,7 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B16" s="24" t="b">
         <v>0</v>
@@ -33943,7 +33952,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>408</v>
@@ -33954,7 +33963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B17" s="24" t="b">
         <v>0</v>
@@ -33963,7 +33972,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>342</v>
@@ -33974,7 +33983,7 @@
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B18" s="24" t="b">
         <v>0</v>
@@ -33983,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>339</v>
@@ -33994,7 +34003,7 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B19" s="24" t="b">
         <v>0</v>
@@ -34003,7 +34012,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>350</v>
@@ -34014,7 +34023,7 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B20" s="24" t="b">
         <v>0</v>
@@ -34023,7 +34032,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>382</v>
@@ -34034,7 +34043,7 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B21" s="24" t="b">
         <v>0</v>
@@ -34043,7 +34052,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>408</v>
@@ -34118,7 +34127,7 @@
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B26" s="24" t="b">
         <v>0</v>
@@ -34134,7 +34143,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B27" s="24" t="b">
         <v>0</v>
@@ -34150,7 +34159,7 @@
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B28" s="24" t="b">
         <v>0</v>
@@ -34166,7 +34175,7 @@
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B29" s="24" t="b">
         <v>0</v>
@@ -34182,7 +34191,7 @@
     </row>
     <row r="30">
       <c r="A30" s="25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B30" s="24" t="b">
         <v>0</v>
@@ -34198,7 +34207,7 @@
     </row>
     <row r="31">
       <c r="A31" s="25" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B31" s="24" t="b">
         <v>0</v>
@@ -34214,7 +34223,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B32" s="24" t="b">
         <v>0</v>
@@ -34230,7 +34239,7 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B33" s="24" t="b">
         <v>0</v>
@@ -34246,7 +34255,7 @@
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B34" s="24" t="b">
         <v>0</v>
@@ -34262,7 +34271,7 @@
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B35" s="24" t="b">
         <v>0</v>
@@ -34278,7 +34287,7 @@
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B36" s="24" t="b">
         <v>0</v>
@@ -34294,7 +34303,7 @@
     </row>
     <row r="37">
       <c r="A37" s="28" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B37" s="24" t="b">
         <v>0</v>
@@ -34310,7 +34319,7 @@
     </row>
     <row r="38">
       <c r="A38" s="28" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B38" s="24" t="b">
         <v>0</v>
@@ -34326,7 +34335,7 @@
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B39" s="24" t="b">
         <v>0</v>
@@ -34342,7 +34351,7 @@
     </row>
     <row r="40">
       <c r="A40" s="28" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B40" s="24" t="b">
         <v>0</v>
@@ -34358,7 +34367,7 @@
     </row>
     <row r="41">
       <c r="A41" s="28" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B41" s="24" t="b">
         <v>0</v>
@@ -34374,7 +34383,7 @@
     </row>
     <row r="42">
       <c r="A42" s="28" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B42" s="24" t="b">
         <v>0</v>
@@ -34390,7 +34399,7 @@
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B43" s="24" t="b">
         <v>0</v>
@@ -34406,7 +34415,7 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B44" s="22" t="b">
         <v>1</v>
@@ -34422,7 +34431,7 @@
     </row>
     <row r="45">
       <c r="A45" s="29" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B45" s="30" t="b">
         <v>1</v>
@@ -34461,19 +34470,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2">
@@ -34484,10 +34493,10 @@
         <v>363</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>363</v>
@@ -34501,13 +34510,13 @@
         <v>439</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>477</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>366</v>
@@ -34519,13 +34528,13 @@
         <v>440</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>368</v>
@@ -34537,16 +34546,16 @@
         <v>441</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>366</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>339</v>
@@ -34557,52 +34566,52 @@
         <v>442</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G6" s="33"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G7" s="33"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>366</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>408</v>
@@ -34610,43 +34619,43 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>477</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>474</v>
       </c>
       <c r="G9" s="33"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G10" s="33"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>368</v>
@@ -34658,7 +34667,7 @@
         <v>366</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>350</v>
@@ -34666,55 +34675,55 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G12" s="33"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G13" s="33"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>382</v>
@@ -34722,25 +34731,25 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G15" s="33"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>368</v>
@@ -34749,98 +34758,98 @@
         <v>366</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G16" s="33"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D19" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>487</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>484</v>
       </c>
       <c r="G19" s="33"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="33" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G21" s="33"/>
     </row>
     <row r="22">
       <c r="F22" s="46" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G22" s="33"/>
     </row>

--- a/Spell_Caster_Strings.xlsx
+++ b/Spell_Caster_Strings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="600">
   <si>
     <t>Text</t>
   </si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t>Saving...</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit?</t>
+  </si>
+  <si>
+    <t>Return to Main Menu?</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>Load Successful!</t>
   </si>
   <si>
     <t>"{Spell}!"</t>
@@ -3128,27 +3143,37 @@
       <c r="C87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
@@ -7732,1479 +7757,1479 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -13390,13 +13415,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -13404,455 +13429,455 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="13" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="13" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -19636,388 +19661,388 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>422</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>424</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -20049,33 +20074,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -20091,137 +20116,137 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B3" s="2">
         <v>3.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B4" s="2">
         <v>4.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B6" s="2">
         <v>6.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B7" s="2">
         <v>7.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B8" s="2">
         <v>10.0</v>
@@ -20232,7 +20257,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9">
@@ -30179,244 +30204,244 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39">
@@ -34291,27 +34316,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B2" s="22" t="b">
         <v>0</v>
@@ -34323,7 +34348,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F2" s="22" t="b">
         <v>0</v>
@@ -34331,7 +34356,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B3" s="22" t="b">
         <v>0</v>
@@ -34343,7 +34368,7 @@
         <v>50.0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F3" s="22" t="b">
         <v>0</v>
@@ -34351,7 +34376,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B4" s="22" t="b">
         <v>0</v>
@@ -34363,7 +34388,7 @@
         <v>100.0</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F4" s="22" t="b">
         <v>0</v>
@@ -34371,7 +34396,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B5" s="22" t="b">
         <v>0</v>
@@ -34383,7 +34408,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F5" s="22" t="b">
         <v>0</v>
@@ -34391,7 +34416,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B6" s="22" t="b">
         <v>0</v>
@@ -34403,7 +34428,7 @@
         <v>50.0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F6" s="22" t="b">
         <v>0</v>
@@ -34411,7 +34436,7 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B7" s="22" t="b">
         <v>0</v>
@@ -34423,7 +34448,7 @@
         <v>100.0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F7" s="22" t="b">
         <v>0</v>
@@ -34431,7 +34456,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B8" s="22" t="b">
         <v>0</v>
@@ -34443,7 +34468,7 @@
         <v>20.0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F8" s="22" t="b">
         <v>0</v>
@@ -34451,7 +34476,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B9" s="22" t="b">
         <v>0</v>
@@ -34463,7 +34488,7 @@
         <v>50.0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F9" s="22" t="b">
         <v>0</v>
@@ -34471,7 +34496,7 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B10" s="22" t="b">
         <v>0</v>
@@ -34483,7 +34508,7 @@
         <v>100.0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F10" s="22" t="b">
         <v>0</v>
@@ -34491,7 +34516,7 @@
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B11" s="24" t="b">
         <v>0</v>
@@ -34507,7 +34532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B12" s="24" t="b">
         <v>0</v>
@@ -34516,10 +34541,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F12" s="24" t="b">
         <v>0</v>
@@ -34527,7 +34552,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B13" s="24" t="b">
         <v>0</v>
@@ -34536,10 +34561,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F13" s="24" t="b">
         <v>0</v>
@@ -34547,7 +34572,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B14" s="24" t="b">
         <v>0</v>
@@ -34556,10 +34581,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F14" s="24" t="b">
         <v>0</v>
@@ -34567,7 +34592,7 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B15" s="24" t="b">
         <v>0</v>
@@ -34576,10 +34601,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F15" s="24" t="b">
         <v>0</v>
@@ -34587,7 +34612,7 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B16" s="24" t="b">
         <v>0</v>
@@ -34596,10 +34621,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F16" s="24" t="b">
         <v>0</v>
@@ -34607,7 +34632,7 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B17" s="24" t="b">
         <v>0</v>
@@ -34616,10 +34641,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F17" s="24" t="b">
         <v>0</v>
@@ -34627,7 +34652,7 @@
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B18" s="24" t="b">
         <v>0</v>
@@ -34636,10 +34661,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F18" s="24" t="b">
         <v>0</v>
@@ -34647,7 +34672,7 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B19" s="24" t="b">
         <v>0</v>
@@ -34656,10 +34681,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F19" s="24" t="b">
         <v>0</v>
@@ -34667,7 +34692,7 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B20" s="24" t="b">
         <v>0</v>
@@ -34676,10 +34701,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F20" s="24" t="b">
         <v>0</v>
@@ -34687,7 +34712,7 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B21" s="24" t="b">
         <v>0</v>
@@ -34696,10 +34721,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F21" s="24" t="b">
         <v>0</v>
@@ -34707,7 +34732,7 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B22" s="24" t="b">
         <v>1</v>
@@ -34723,7 +34748,7 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B23" s="24" t="b">
         <v>1</v>
@@ -34739,7 +34764,7 @@
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B24" s="24" t="b">
         <v>1</v>
@@ -34755,7 +34780,7 @@
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B25" s="24" t="b">
         <v>0</v>
@@ -34771,7 +34796,7 @@
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B26" s="24" t="b">
         <v>0</v>
@@ -34787,7 +34812,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B27" s="24" t="b">
         <v>0</v>
@@ -34803,7 +34828,7 @@
     </row>
     <row r="28">
       <c r="A28" s="25" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B28" s="24" t="b">
         <v>0</v>
@@ -34819,7 +34844,7 @@
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B29" s="24" t="b">
         <v>0</v>
@@ -34835,7 +34860,7 @@
     </row>
     <row r="30">
       <c r="A30" s="27" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B30" s="24" t="b">
         <v>0</v>
@@ -34851,7 +34876,7 @@
     </row>
     <row r="31">
       <c r="A31" s="25" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B31" s="24" t="b">
         <v>0</v>
@@ -34867,7 +34892,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B32" s="24" t="b">
         <v>0</v>
@@ -34883,7 +34908,7 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B33" s="24" t="b">
         <v>0</v>
@@ -34899,7 +34924,7 @@
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B34" s="24" t="b">
         <v>0</v>
@@ -34915,7 +34940,7 @@
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B35" s="24" t="b">
         <v>0</v>
@@ -34931,7 +34956,7 @@
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B36" s="24" t="b">
         <v>0</v>
@@ -34947,7 +34972,7 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B37" s="24" t="b">
         <v>0</v>
@@ -34963,7 +34988,7 @@
     </row>
     <row r="38">
       <c r="A38" s="25" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B38" s="24" t="b">
         <v>0</v>
@@ -34979,7 +35004,7 @@
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B39" s="24" t="b">
         <v>0</v>
@@ -34995,7 +35020,7 @@
     </row>
     <row r="40">
       <c r="A40" s="28" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B40" s="24" t="b">
         <v>0</v>
@@ -35011,7 +35036,7 @@
     </row>
     <row r="41">
       <c r="A41" s="28" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B41" s="24" t="b">
         <v>0</v>
@@ -35027,7 +35052,7 @@
     </row>
     <row r="42">
       <c r="A42" s="28" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B42" s="24" t="b">
         <v>0</v>
@@ -35043,7 +35068,7 @@
     </row>
     <row r="43">
       <c r="A43" s="28" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B43" s="24" t="b">
         <v>0</v>
@@ -35059,7 +35084,7 @@
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B44" s="24" t="b">
         <v>0</v>
@@ -35075,7 +35100,7 @@
     </row>
     <row r="45">
       <c r="A45" s="23" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B45" s="24" t="b">
         <v>0</v>
@@ -35091,7 +35116,7 @@
     </row>
     <row r="46">
       <c r="A46" s="21" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B46" s="22" t="b">
         <v>1</v>
@@ -35107,7 +35132,7 @@
     </row>
     <row r="47">
       <c r="A47" s="21" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B47" s="22" t="b">
         <v>1</v>
@@ -35123,7 +35148,7 @@
     </row>
     <row r="48">
       <c r="A48" s="21" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B48" s="22" t="b">
         <v>1</v>
@@ -35162,386 +35187,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G3" s="31"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G4" s="31"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G6" s="31"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G7" s="31"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G9" s="31"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G10" s="31"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G12" s="31"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G13" s="31"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G15" s="31"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G16" s="31"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D17" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>579</v>
-      </c>
       <c r="G17" s="31" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G18" s="31"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G19" s="31"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="31" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G21" s="31"/>
     </row>
     <row r="22">
       <c r="F22" s="44" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G22" s="31"/>
     </row>

--- a/Spell_Caster_Strings.xlsx
+++ b/Spell_Caster_Strings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="613">
   <si>
     <t>Text</t>
   </si>
@@ -461,6 +461,39 @@
     <t>Load Successful!</t>
   </si>
   <si>
+    <t>Type Your Selection</t>
+  </si>
+  <si>
+    <t>Name Saved!</t>
+  </si>
+  <si>
+    <t>Deleting Saved Data...</t>
+  </si>
+  <si>
+    <t>Saved Data Deleted</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete your progress? This cannot be undone</t>
+  </si>
+  <si>
+    <t>Which Character do you want to rename?</t>
+  </si>
+  <si>
+    <t>What would you like to rename this character to?</t>
+  </si>
+  <si>
+    <t>Rename {Key} to {Name}?</t>
+  </si>
+  <si>
+    <t>{Key} = Character, {Name} = new name</t>
+  </si>
+  <si>
+    <t>That name is too long</t>
+  </si>
+  <si>
+    <t>That name is too short</t>
+  </si>
+  <si>
     <t>"{Spell}!"</t>
   </si>
   <si>
@@ -1286,6 +1319,15 @@
     <t>Dungeon5</t>
   </si>
   <si>
+    <t>The candle lights up the room</t>
+  </si>
+  <si>
+    <t>You reach the bottom of the tower</t>
+  </si>
+  <si>
+    <t>Do you stay here and fight more enemies or go up the stairs?</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1328,9 +1370,6 @@
     <t>It's an unlit candlestick</t>
   </si>
   <si>
-    <t>The candle lights up the room</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -1514,7 +1553,7 @@
     <t>Ice, Strength</t>
   </si>
   <si>
-    <t>6, 15</t>
+    <t>4, 20</t>
   </si>
   <si>
     <t>Mega-Potion, Ice Key, Mega-Potion Recipe, Yetti Fur</t>
@@ -1529,7 +1568,7 @@
     <t>Water, Def</t>
   </si>
   <si>
-    <t>7, 12</t>
+    <t>5, 8</t>
   </si>
   <si>
     <t>Mega-Ether, Mega-Ether Recipe</t>
@@ -1544,7 +1583,7 @@
     <t>Lightning, Magic</t>
   </si>
   <si>
-    <t>8, 17</t>
+    <t>6, 20</t>
   </si>
   <si>
     <t>Hi-Elixir, Hi-Elixir Recipe, Key Card</t>
@@ -1556,7 +1595,7 @@
     <t>Wind, Def</t>
   </si>
   <si>
-    <t>9, 18</t>
+    <t>7, 10</t>
   </si>
   <si>
     <t>Mega-Elixir, Mega-Elixir Recipe</t>
@@ -1824,7 +1863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1835,9 +1874,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1987,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1998,9 +2034,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2022,7 +2055,7 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2034,8 +2067,8 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -2043,10 +2076,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2065,7 +2098,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2113,7 +2146,7 @@
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2134,7 +2167,7 @@
     <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3129,106 +3162,128 @@
       <c r="C85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="3"/>
+      <c r="A99" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="3"/>
+      <c r="A100" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
+      <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
+      <c r="A102" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
@@ -7756,1480 +7811,1480 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
+      <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>151</v>
+      <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>157</v>
+      <c r="A8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>171</v>
+      <c r="C19" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>178</v>
+      <c r="A25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>182</v>
+      <c r="A28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>185</v>
+      <c r="A30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>178</v>
+      <c r="A31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>189</v>
+      <c r="A33" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>189</v>
+      <c r="A34" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7" t="s">
-        <v>192</v>
+      <c r="A35" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>148</v>
+      <c r="A36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>148</v>
+      <c r="A37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>189</v>
+      <c r="A38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>197</v>
+      <c r="A39" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>199</v>
+      <c r="A40" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="5" t="s">
-        <v>185</v>
+      <c r="C42" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="5" t="s">
-        <v>185</v>
+      <c r="C45" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>222</v>
+      <c r="A59" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="s">
-        <v>303</v>
+      <c r="A134" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
-        <v>304</v>
+      <c r="A135" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="10" t="s">
-        <v>305</v>
+      <c r="A136" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="11" t="s">
-        <v>306</v>
+      <c r="A137" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="s">
-        <v>312</v>
+      <c r="A143" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>148</v>
+      <c r="A144" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
-        <v>315</v>
+      <c r="A146" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>148</v>
+        <v>327</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="s">
-        <v>318</v>
+      <c r="A149" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>148</v>
+        <v>330</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>148</v>
+      <c r="A151" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="s">
-        <v>321</v>
+      <c r="A152" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="s">
-        <v>322</v>
+      <c r="A153" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>243</v>
+      <c r="A154" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="12" t="s">
-        <v>324</v>
+      <c r="A155" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="12" t="s">
-        <v>325</v>
+      <c r="A156" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>212</v>
+      <c r="A157" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="12" t="s">
-        <v>327</v>
+      <c r="A158" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="s">
-        <v>328</v>
+      <c r="A159" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>243</v>
+      <c r="A160" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>243</v>
+      <c r="A161" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>212</v>
+      <c r="A162" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="s">
-        <v>332</v>
+      <c r="A163" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>148</v>
+      <c r="A164" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="s">
-        <v>334</v>
+      <c r="A165" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="4" t="s">
-        <v>335</v>
+      <c r="A166" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="4" t="s">
-        <v>336</v>
+      <c r="A167" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>148</v>
+      <c r="A168" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="4" t="s">
-        <v>338</v>
+      <c r="A169" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="4" t="s">
-        <v>339</v>
+      <c r="A170" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="4" t="s">
-        <v>340</v>
+      <c r="A171" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>212</v>
+      <c r="A172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="s">
-        <v>342</v>
+      <c r="A173" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>148</v>
+      <c r="A174" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="4" t="s">
-        <v>344</v>
+      <c r="A175" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="4" t="s">
-        <v>345</v>
+      <c r="A176" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>148</v>
+      <c r="A177" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>212</v>
+      <c r="A178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="4" t="s">
-        <v>348</v>
+      <c r="A179" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="s">
-        <v>349</v>
+      <c r="A180" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -13415,488 +13470,500 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>353</v>
+      <c r="A2" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
-        <v>354</v>
+      <c r="D2" s="12" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
-        <v>356</v>
+      <c r="D3" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="13" t="s">
-        <v>358</v>
+      <c r="D4" s="12" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="13" t="s">
-        <v>360</v>
+      <c r="D5" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>361</v>
+      <c r="A6" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>365</v>
+      <c r="A8" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>367</v>
+      <c r="A9" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>396</v>
+      <c r="A27" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>397</v>
+      <c r="A28" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
-        <v>398</v>
+      <c r="A29" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>399</v>
+      <c r="A30" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>400</v>
+      <c r="A31" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>402</v>
+      <c r="A32" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>407</v>
+      <c r="A36" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>412</v>
+      <c r="A41" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>414</v>
+      <c r="A42" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
-        <v>415</v>
+      <c r="C42" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>416</v>
+      <c r="A43" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>417</v>
+      <c r="C43" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>418</v>
+      <c r="A44" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>419</v>
+      <c r="C44" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>420</v>
+      <c r="A45" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>421</v>
+      <c r="C45" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
+      <c r="A47" s="15" t="s">
+        <v>434</v>
+      </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="15" t="s">
+        <v>432</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A48" s="15" t="s">
+        <v>435</v>
+      </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="15" t="s">
+        <v>432</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
@@ -19660,389 +19727,389 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>425</v>
+      <c r="A1" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="A2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>431</v>
+      <c r="A3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>438</v>
+      <c r="A8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>439</v>
+      <c r="A9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>482</v>
+      <c r="C33" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -20074,179 +20141,179 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>486</v>
+        <v>498</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>499</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>489</v>
+        <v>500</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="b">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B3" s="2">
         <v>3.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>492</v>
+        <v>504</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>495</v>
+        <v>506</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B4" s="2">
         <v>4.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>495</v>
+        <v>512</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>495</v>
+        <v>517</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B6" s="2">
         <v>6.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>508</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B7" s="2">
         <v>7.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>495</v>
+        <v>526</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B8" s="2">
         <v>10.0</v>
@@ -20256,8 +20323,8 @@
       <c r="E8" s="19"/>
       <c r="F8" s="3"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
-        <v>495</v>
+      <c r="H8" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="9">
@@ -30204,244 +30271,244 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39">
@@ -34315,850 +34382,850 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B3" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>50.0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F4" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="B6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>50.0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F6" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="B7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F7" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="22" t="b">
+      <c r="B8" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="b">
+      <c r="C8" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D8" s="21">
         <v>20.0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F2" s="22" t="b">
+      <c r="E8" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="B3" s="22" t="b">
+    <row r="9">
+      <c r="A9" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="b">
+      <c r="C9" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D9" s="21">
         <v>50.0</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F3" s="22" t="b">
+      <c r="E9" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="B4" s="22" t="b">
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="b">
+      <c r="C10" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D10" s="21">
         <v>100.0</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F4" s="22" t="b">
+      <c r="E10" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="B5" s="22" t="b">
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="b">
+      <c r="C11" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
-        <v>20.0</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="F5" s="22" t="b">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="B6" s="22" t="b">
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="b">
+      <c r="C12" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="22">
-        <v>50.0</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="F6" s="22" t="b">
+      <c r="D12" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="B7" s="22" t="b">
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="b">
+      <c r="C13" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="22">
-        <v>100.0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="F7" s="22" t="b">
+      <c r="D13" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" s="22" t="b">
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="b">
+      <c r="C14" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
-        <v>20.0</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="F8" s="22" t="b">
+      <c r="D14" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="22" t="b">
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="b">
+      <c r="C15" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
-        <v>50.0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="F9" s="22" t="b">
+      <c r="D15" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10" s="22" t="b">
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="22" t="b">
+      <c r="C16" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="22">
-        <v>100.0</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="F10" s="22" t="b">
+      <c r="D16" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="B11" s="24" t="b">
+    <row r="17">
+      <c r="A17" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B17" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="24" t="b">
+      <c r="C17" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="b">
+      <c r="D17" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="B12" s="24" t="b">
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="24" t="b">
+      <c r="C18" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" s="24" t="b">
+      <c r="D18" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13" s="24" t="b">
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="24" t="b">
+      <c r="C19" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="F13" s="24" t="b">
+      <c r="D19" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="B14" s="24" t="b">
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="B20" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="24" t="b">
+      <c r="C20" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F14" s="24" t="b">
+      <c r="D20" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="B15" s="24" t="b">
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B21" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="24" t="b">
+      <c r="C21" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="D21" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="F15" s="24" t="b">
+      <c r="B22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="B16" s="24" t="b">
+    <row r="23">
+      <c r="A23" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="24" t="b">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="F16" s="24" t="b">
+    </row>
+    <row r="24">
+      <c r="A24" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="B17" s="24" t="b">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="b">
+      <c r="C25" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="F17" s="24" t="b">
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="B18" s="24" t="b">
+      <c r="C26" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="24" t="b">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="F18" s="24" t="b">
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="B19" s="24" t="b">
+      <c r="C27" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="24" t="b">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F19" s="24" t="b">
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="B20" s="24" t="b">
+      <c r="C28" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="24" t="b">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="F20" s="24" t="b">
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B29" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="B21" s="24" t="b">
+      <c r="C29" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="24" t="b">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="F21" s="24" t="b">
+    </row>
+    <row r="30">
+      <c r="A30" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="B30" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="24" t="b">
+      <c r="C30" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="b">
+    </row>
+    <row r="31">
+      <c r="A31" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="B31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="b">
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="24" t="b">
+      <c r="C32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="24" t="b">
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="B33" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="b">
+      <c r="C33" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="B24" s="24" t="b">
+    <row r="34">
+      <c r="A34" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="24" t="b">
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="B35" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="b">
+      <c r="C35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="B25" s="24" t="b">
+    <row r="36">
+      <c r="A36" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="B36" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="24" t="b">
+      <c r="C36" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="b">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="B26" s="24" t="b">
+    <row r="37">
+      <c r="A37" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="B37" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="24" t="b">
+      <c r="C37" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="24" t="b">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="B27" s="24" t="b">
+    <row r="38">
+      <c r="A38" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B38" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="24" t="b">
+      <c r="C38" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24" t="b">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="B28" s="24" t="b">
+    <row r="39">
+      <c r="A39" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="B39" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="b">
+      <c r="C39" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="24" t="b">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="B29" s="24" t="b">
+    <row r="40">
+      <c r="A40" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="B40" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C29" s="24" t="b">
+      <c r="C40" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24" t="b">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="B30" s="24" t="b">
+    <row r="41">
+      <c r="A41" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="B41" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C30" s="24" t="b">
+      <c r="C41" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24" t="b">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="B31" s="24" t="b">
+    <row r="42">
+      <c r="A42" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B42" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C31" s="24" t="b">
+      <c r="C42" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="24" t="b">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="B32" s="24" t="b">
+    <row r="43">
+      <c r="A43" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="B43" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="24" t="b">
+      <c r="C43" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="24" t="b">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="B33" s="24" t="b">
+    <row r="44">
+      <c r="A44" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="B44" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="24" t="b">
+      <c r="C44" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="24" t="b">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="B34" s="24" t="b">
+    <row r="45">
+      <c r="A45" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="24" t="b">
+      <c r="C45" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24" t="b">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="B35" s="24" t="b">
+    <row r="46">
+      <c r="A46" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B46" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="24" t="b">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="24" t="b">
+    </row>
+    <row r="47">
+      <c r="A47" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B47" s="21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="B36" s="24" t="b">
+      <c r="C47" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="24" t="b">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="24" t="b">
+    </row>
+    <row r="48">
+      <c r="A48" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="B48" s="21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="B37" s="24" t="b">
+      <c r="C48" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="B38" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="B39" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="B40" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="B41" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="B42" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="B43" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="B44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="B45" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="B46" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="B47" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="B48" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="22" t="b">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -35186,389 +35253,389 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C13" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F14" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="F15" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="G17" s="30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B19" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>575</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>574</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>581</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>577</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>582</v>
-      </c>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>583</v>
-      </c>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>575</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>584</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>577</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>599</v>
+      <c r="D20" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="G21" s="31"/>
+      <c r="F21" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="G21" s="30"/>
     </row>
     <row r="22">
-      <c r="F22" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="G22" s="31"/>
+      <c r="F22" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="G22" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Spell_Caster_Strings.xlsx
+++ b/Spell_Caster_Strings.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="614">
   <si>
     <t>Text</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>That name is too short</t>
+  </si>
+  <si>
+    <t>Getting Inventory list...</t>
   </si>
   <si>
     <t>"{Spell}!"</t>
@@ -2034,6 +2037,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2066,9 +2072,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -3283,7 +3286,9 @@
       <c r="C102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
+      <c r="A103" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
@@ -7811,1480 +7816,1480 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>200</v>
       </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>159</v>
+      <c r="A36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>159</v>
+      <c r="A37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>200</v>
+      <c r="A38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>210</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
-        <v>196</v>
+      <c r="C42" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>196</v>
+      <c r="C45" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>233</v>
+      <c r="A59" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
-        <v>314</v>
+      <c r="A134" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="8" t="s">
-        <v>315</v>
+      <c r="A135" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
-        <v>316</v>
+      <c r="A136" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="10" t="s">
-        <v>317</v>
+      <c r="A137" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
-        <v>323</v>
+      <c r="A143" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
-        <v>324</v>
+      <c r="A144" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="s">
-        <v>331</v>
+      <c r="A151" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="11" t="s">
-        <v>332</v>
+      <c r="A152" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
-        <v>333</v>
+      <c r="A153" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="s">
-        <v>334</v>
+      <c r="A154" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="11" t="s">
-        <v>335</v>
+      <c r="A155" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="s">
-        <v>336</v>
+      <c r="A156" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="s">
-        <v>337</v>
+      <c r="A157" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="11" t="s">
-        <v>338</v>
+      <c r="A158" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="s">
-        <v>339</v>
+      <c r="A159" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="11" t="s">
-        <v>340</v>
+      <c r="A160" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -13470,499 +13475,499 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>364</v>
+      <c r="A2" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>365</v>
+      <c r="D2" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="A3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="12" t="s">
-        <v>367</v>
+      <c r="D3" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="10"/>
+      <c r="A4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="12" t="s">
-        <v>369</v>
+      <c r="D4" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
-        <v>371</v>
+      <c r="D5" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>372</v>
+      <c r="A6" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="14" t="s">
         <v>374</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>407</v>
+      <c r="A27" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>408</v>
+      <c r="A28" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>409</v>
+      <c r="A29" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>410</v>
+      <c r="A30" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>411</v>
+      <c r="A31" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>413</v>
+      <c r="A32" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
-        <v>434</v>
+      <c r="A47" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="15" t="s">
-        <v>432</v>
+      <c r="C47" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
-        <v>435</v>
+      <c r="A48" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="15" t="s">
-        <v>432</v>
+      <c r="C48" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -19727,389 +19732,389 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>439</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>445</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B21" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="C25" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>495</v>
+      <c r="C33" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -20141,33 +20146,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -20183,137 +20188,137 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B3" s="2">
         <v>3.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2">
         <v>4.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B6" s="2">
         <v>6.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B7" s="2">
         <v>7.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B8" s="2">
         <v>10.0</v>
@@ -20324,7 +20329,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="19"/>
       <c r="H8" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9">
@@ -30271,244 +30276,244 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39">
@@ -34383,27 +34388,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B2" s="21" t="b">
         <v>0</v>
@@ -34415,7 +34420,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F2" s="21" t="b">
         <v>0</v>
@@ -34423,7 +34428,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B3" s="21" t="b">
         <v>0</v>
@@ -34435,7 +34440,7 @@
         <v>50.0</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F3" s="21" t="b">
         <v>0</v>
@@ -34443,7 +34448,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B4" s="21" t="b">
         <v>0</v>
@@ -34455,7 +34460,7 @@
         <v>100.0</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F4" s="21" t="b">
         <v>0</v>
@@ -34463,7 +34468,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B5" s="21" t="b">
         <v>0</v>
@@ -34475,7 +34480,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F5" s="21" t="b">
         <v>0</v>
@@ -34483,7 +34488,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B6" s="21" t="b">
         <v>0</v>
@@ -34495,7 +34500,7 @@
         <v>50.0</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F6" s="21" t="b">
         <v>0</v>
@@ -34503,7 +34508,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B7" s="21" t="b">
         <v>0</v>
@@ -34515,7 +34520,7 @@
         <v>100.0</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F7" s="21" t="b">
         <v>0</v>
@@ -34523,7 +34528,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B8" s="21" t="b">
         <v>0</v>
@@ -34535,7 +34540,7 @@
         <v>20.0</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F8" s="21" t="b">
         <v>0</v>
@@ -34543,7 +34548,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B9" s="21" t="b">
         <v>0</v>
@@ -34555,7 +34560,7 @@
         <v>50.0</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F9" s="21" t="b">
         <v>0</v>
@@ -34563,7 +34568,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" s="21" t="b">
         <v>0</v>
@@ -34575,7 +34580,7 @@
         <v>100.0</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F10" s="21" t="b">
         <v>0</v>
@@ -34583,7 +34588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B11" s="23" t="b">
         <v>0</v>
@@ -34599,7 +34604,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B12" s="23" t="b">
         <v>0</v>
@@ -34608,10 +34613,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F12" s="23" t="b">
         <v>0</v>
@@ -34619,7 +34624,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B13" s="23" t="b">
         <v>0</v>
@@ -34628,10 +34633,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F13" s="23" t="b">
         <v>0</v>
@@ -34639,7 +34644,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B14" s="23" t="b">
         <v>0</v>
@@ -34648,10 +34653,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F14" s="23" t="b">
         <v>0</v>
@@ -34659,7 +34664,7 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B15" s="23" t="b">
         <v>0</v>
@@ -34668,10 +34673,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F15" s="23" t="b">
         <v>0</v>
@@ -34679,7 +34684,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B16" s="23" t="b">
         <v>0</v>
@@ -34688,10 +34693,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F16" s="23" t="b">
         <v>0</v>
@@ -34699,7 +34704,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B17" s="23" t="b">
         <v>0</v>
@@ -34708,10 +34713,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F17" s="23" t="b">
         <v>0</v>
@@ -34719,7 +34724,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B18" s="23" t="b">
         <v>0</v>
@@ -34728,10 +34733,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F18" s="23" t="b">
         <v>0</v>
@@ -34739,7 +34744,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B19" s="23" t="b">
         <v>0</v>
@@ -34748,10 +34753,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F19" s="23" t="b">
         <v>0</v>
@@ -34759,7 +34764,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B20" s="23" t="b">
         <v>0</v>
@@ -34768,10 +34773,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F20" s="23" t="b">
         <v>0</v>
@@ -34779,7 +34784,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B21" s="23" t="b">
         <v>0</v>
@@ -34788,10 +34793,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F21" s="23" t="b">
         <v>0</v>
@@ -34799,7 +34804,7 @@
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B22" s="23" t="b">
         <v>1</v>
@@ -34815,7 +34820,7 @@
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B23" s="23" t="b">
         <v>1</v>
@@ -34831,7 +34836,7 @@
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B24" s="23" t="b">
         <v>1</v>
@@ -34847,7 +34852,7 @@
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B25" s="23" t="b">
         <v>0</v>
@@ -34863,7 +34868,7 @@
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B26" s="23" t="b">
         <v>0</v>
@@ -34879,7 +34884,7 @@
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B27" s="23" t="b">
         <v>0</v>
@@ -34895,7 +34900,7 @@
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B28" s="23" t="b">
         <v>0</v>
@@ -34911,7 +34916,7 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B29" s="23" t="b">
         <v>0</v>
@@ -34927,7 +34932,7 @@
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B30" s="23" t="b">
         <v>0</v>
@@ -34943,7 +34948,7 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B31" s="23" t="b">
         <v>0</v>
@@ -34959,7 +34964,7 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B32" s="23" t="b">
         <v>0</v>
@@ -34975,7 +34980,7 @@
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B33" s="23" t="b">
         <v>0</v>
@@ -34991,7 +34996,7 @@
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B34" s="23" t="b">
         <v>0</v>
@@ -35007,7 +35012,7 @@
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B35" s="23" t="b">
         <v>0</v>
@@ -35023,7 +35028,7 @@
     </row>
     <row r="36">
       <c r="A36" s="24" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B36" s="23" t="b">
         <v>0</v>
@@ -35039,7 +35044,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B37" s="23" t="b">
         <v>0</v>
@@ -35055,7 +35060,7 @@
     </row>
     <row r="38">
       <c r="A38" s="24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B38" s="23" t="b">
         <v>0</v>
@@ -35071,7 +35076,7 @@
     </row>
     <row r="39">
       <c r="A39" s="27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B39" s="23" t="b">
         <v>0</v>
@@ -35087,7 +35092,7 @@
     </row>
     <row r="40">
       <c r="A40" s="27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B40" s="23" t="b">
         <v>0</v>
@@ -35103,7 +35108,7 @@
     </row>
     <row r="41">
       <c r="A41" s="27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B41" s="23" t="b">
         <v>0</v>
@@ -35119,7 +35124,7 @@
     </row>
     <row r="42">
       <c r="A42" s="27" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B42" s="23" t="b">
         <v>0</v>
@@ -35135,7 +35140,7 @@
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B43" s="23" t="b">
         <v>0</v>
@@ -35151,7 +35156,7 @@
     </row>
     <row r="44">
       <c r="A44" s="27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B44" s="23" t="b">
         <v>0</v>
@@ -35167,7 +35172,7 @@
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B45" s="23" t="b">
         <v>0</v>
@@ -35183,7 +35188,7 @@
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B46" s="21" t="b">
         <v>1</v>
@@ -35199,7 +35204,7 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B47" s="21" t="b">
         <v>1</v>
@@ -35215,7 +35220,7 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B48" s="21" t="b">
         <v>1</v>
@@ -35253,387 +35258,387 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>610</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>550</v>
+      <c r="A2" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B20" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>592</v>
-      </c>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>593</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>593</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>596</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>595</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>593</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>598</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>596</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>600</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="30" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22">
       <c r="F22" s="43" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G22" s="30"/>
     </row>
